--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2214723.269389699</v>
+        <v>2284911.460898523</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903708</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768293</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6844692.631666453</v>
+        <v>7053659.838602787</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>241.581826710386</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>311.7341478737482</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>143.3360317332599</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>158.7959594709186</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>311.6807085383107</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>161.8203589035906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.3258419561446</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>4.913758367914863</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>13.10292942272131</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>140.5843982999966</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>209.9133598823543</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>180.6077930059086</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,13 +1372,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>6.288987772519389</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>71.36683641495289</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.7165542762732</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>93.45986779485281</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -1546,7 +1548,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1581,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1607,22 +1609,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>388.9801230013067</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>183.5236380974013</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.7165542762732</v>
+        <v>142.7935178761923</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1777,7 +1779,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1856,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>145.4052413122292</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2017,7 +2019,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>37.25410818144166</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2093,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>96.0851398248662</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>52.07967182189571</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>137.8797272855246</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2381,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>88.08110241150655</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>29.06736062834941</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -2530,7 +2532,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>86.5491849825636</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.3812093558886</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>31.42227043795242</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2953,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.2620969886489</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>271.0770354214525</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>187.6971066458113</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3089,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>30.41393564821638</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>190.2864434031516</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>309.974021089658</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3278,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>181.5733848809636</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3323,7 +3325,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>264.8703196400225</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>116.7078795246904</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3503,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>271.338631283351</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3518,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>39.64108301376388</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>138.4181486894601</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>86.28703858440244</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3749,16 +3751,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>102.8113214474569</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3910,7 +3912,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>190.2052903937448</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3977,16 +3979,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>346.3533159897248</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>137.7771837005227</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -3995,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>101.3308736018835</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.3766383163188</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1192.914471946194</v>
+        <v>722.2287622341209</v>
       </c>
       <c r="C2" t="n">
-        <v>782.7898812594643</v>
+        <v>478.2067150519129</v>
       </c>
       <c r="D2" t="n">
-        <v>378.3259513525248</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E2" t="n">
         <v>63.44297370227418</v>
@@ -4328,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W2" t="n">
-        <v>1603.135651610684</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X2" t="n">
-        <v>1603.135651610684</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.135651610684</v>
+        <v>1132.44994189861</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M3" t="n">
-        <v>1192.007362767164</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>705.6507901634313</v>
+        <v>365.8908561961008</v>
       </c>
       <c r="C4" t="n">
-        <v>534.5574177251478</v>
+        <v>365.8908561961008</v>
       </c>
       <c r="D4" t="n">
-        <v>534.5574177251478</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E4" t="n">
-        <v>373.6466025934674</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F4" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
         <v>41.76508562960205</v>
@@ -4513,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1426.380111812816</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1426.380111812816</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1143.58196435894</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.764023188918</v>
+        <v>869.6962192984618</v>
       </c>
       <c r="W4" t="n">
-        <v>1131.694358697792</v>
+        <v>590.6265548073361</v>
       </c>
       <c r="X4" t="n">
-        <v>893.3504965574757</v>
+        <v>590.6265548073361</v>
       </c>
       <c r="Y4" t="n">
-        <v>893.3504965574757</v>
+        <v>365.8908561961008</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.371709779047</v>
+        <v>885.0481370381763</v>
       </c>
       <c r="C5" t="n">
-        <v>1286.287523132721</v>
+        <v>474.9235463514464</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4568,7 +4570,7 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
         <v>558.6080202959273</v>
@@ -4577,40 +4579,40 @@
         <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W5" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X5" t="n">
-        <v>1866.047797426961</v>
+        <v>1295.269316702666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.592889443536</v>
+        <v>1295.269316702666</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1192.007362767164</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767164</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.8713730711994</v>
+        <v>362.4659132624289</v>
       </c>
       <c r="C7" t="n">
-        <v>511.7780006329159</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="D7" t="n">
-        <v>352.2833559558259</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E7" t="n">
         <v>191.3725408241454</v>
@@ -4753,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1566.200589959629</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.817095773278</v>
+        <v>1292.314844899151</v>
       </c>
       <c r="W7" t="n">
-        <v>1048.817095773278</v>
+        <v>1013.245180408025</v>
       </c>
       <c r="X7" t="n">
-        <v>810.4732336329616</v>
+        <v>774.9013182677086</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.4732336329616</v>
+        <v>550.1656196564733</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1020.035937023213</v>
+        <v>2137.925013712426</v>
       </c>
       <c r="C8" t="n">
-        <v>1013.951750376887</v>
+        <v>1727.800423025697</v>
       </c>
       <c r="D8" t="n">
-        <v>609.4878204699476</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1688317915616</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>1831.193789739612</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>1831.193789739612</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.193789739612</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>1831.193789739612</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>1430.257116687702</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962253</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>487.4399542368308</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523.3767283941095</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>352.2833559558259</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>352.2833559558259</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>191.3725408241454</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>191.3725408241454</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1359.130285399589</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1076.332137945713</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>802.4463928852351</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="W10" t="n">
-        <v>523.3767283941095</v>
+        <v>268.4498396147512</v>
       </c>
       <c r="X10" t="n">
-        <v>523.3767283941095</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="Y10" t="n">
-        <v>523.3767283941095</v>
+        <v>86.01772546736876</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1713.723472084487</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1707.370959182952</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.907029276013</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>1302.907029276013</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>881.8766172297003</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>473.1483331225325</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1827.878436701744</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2581.059453340362</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3224.690309757467</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>3659.122578160285</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U11" t="n">
-        <v>3659.122578160285</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V11" t="n">
-        <v>3309.285023496765</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W11" t="n">
-        <v>2925.524722631934</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>2524.881324800886</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>2123.944651748976</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>531.6943293326224</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>531.6943293326224</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>531.6943293326224</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N12" t="n">
-        <v>531.6943293326224</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>1210.82691174531</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1165.22192336846</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="C13" t="n">
-        <v>994.1285509301767</v>
+        <v>734.2273145261215</v>
       </c>
       <c r="D13" t="n">
-        <v>834.6339062530867</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E13" t="n">
-        <v>673.7230911214062</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F13" t="n">
-        <v>509.0919652319975</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G13" t="n">
-        <v>341.8415741575409</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H13" t="n">
-        <v>192.2341189629975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1333.622483243484</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>1333.622483243484</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>1333.622483243484</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W13" t="n">
-        <v>1333.622483243484</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.622483243484</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y13" t="n">
-        <v>1333.622483243484</v>
+        <v>828.6312213896092</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.737571496755</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C14" t="n">
-        <v>959.6129808100251</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>555.1490509030856</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>555.1490509030856</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>162.2398357502505</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>162.2398357502505</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1580.824445456356</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2334.005462094974</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2977.636318512079</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3572.197169313043</v>
+        <v>4341.526397105643</v>
       </c>
       <c r="U14" t="n">
-        <v>3315.136677572553</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V14" t="n">
-        <v>2965.299122909033</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W14" t="n">
-        <v>2581.538822044202</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X14" t="n">
-        <v>2180.895424213154</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y14" t="n">
-        <v>1779.958751161244</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>929.7891025492452</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>929.7891025492452</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N15" t="n">
-        <v>929.7891025492452</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1633.746193095139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1165.22192336846</v>
+        <v>1015.327156917303</v>
       </c>
       <c r="C16" t="n">
-        <v>994.1285509301767</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D16" t="n">
-        <v>834.6339062530867</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E16" t="n">
-        <v>673.7230911214062</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F16" t="n">
-        <v>509.0919652319975</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G16" t="n">
-        <v>341.8415741575409</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>192.2341189629975</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.622483243484</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y16" t="n">
-        <v>1333.622483243484</v>
+        <v>1159.563033559921</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5516,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5598,22 +5600,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>754.331869609911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>754.331869609911</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1458.288960155805</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1158.35815667694</v>
+        <v>1032.970092797216</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H19" t="n">
         <v>209.5897435862967</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>1499.739463682386</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.093855288175</v>
+        <v>1499.739463682386</v>
       </c>
       <c r="W19" t="n">
-        <v>1383.093855288175</v>
+        <v>1220.66979919126</v>
       </c>
       <c r="X19" t="n">
-        <v>1383.093855288175</v>
+        <v>1220.66979919126</v>
       </c>
       <c r="Y19" t="n">
-        <v>1158.35815667694</v>
+        <v>1220.66979919126</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4565.129187738346</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4342.922703685204</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5840,7 @@
         <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>1435.775802995229</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
         <v>1435.775802995229</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4158.379521428778</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3987.286148990495</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3827.791504313405</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3666.880689181724</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3502.249563292316</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3334.999172217859</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3185.391717023315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U22" t="n">
-        <v>4662.18488453114</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V22" t="n">
-        <v>4662.18488453114</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W22" t="n">
-        <v>4383.115220040014</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X22" t="n">
-        <v>4383.115220040014</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y22" t="n">
-        <v>4158.379521428778</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4632.823914199474</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4446.432146079384</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>4206.883407056085</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U25" t="n">
-        <v>3924.08525960221</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V25" t="n">
-        <v>3650.199514541731</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>3371.129850050606</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>3132.785987910289</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>501.9719817977906</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6309,16 +6311,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3468.510486237982</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C28" t="n">
-        <v>3297.417113799698</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>3297.417113799698</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>3297.417113799698</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4542.607905383778</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>4259.809757929902</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>3985.924012869424</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>3706.854348378298</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X28" t="n">
-        <v>3468.510486237982</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y28" t="n">
-        <v>3468.510486237982</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2494.579294402201</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C29" t="n">
-        <v>2084.454703715471</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D29" t="n">
-        <v>1679.990773808531</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E29" t="n">
-        <v>1265.650558325428</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F29" t="n">
-        <v>844.6201462791155</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G29" t="n">
-        <v>435.8918621719477</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H29" t="n">
-        <v>124.9833647996657</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6494,19 +6496,19 @@
         <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4439.978400477999</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>4090.140845814479</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3706.380544949648</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>3305.7371471186</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2904.80047406669</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6548,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1597.308950304478</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>3708.678866932185</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U31" t="n">
-        <v>1109.278667993779</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V31" t="n">
-        <v>835.3929229333004</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="W31" t="n">
-        <v>556.3232584421747</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="X31" t="n">
-        <v>317.9793963018581</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>3868.173511609275</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2324.444211508952</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1914.319620822223</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1509.855690915283</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3920.005762921231</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3536.245462056399</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>3135.602064225352</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2734.665391173442</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3494.095152145073</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="C34" t="n">
-        <v>3323.00177970679</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="D34" t="n">
-        <v>3163.5071350297</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E34" t="n">
-        <v>3163.5071350297</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F34" t="n">
-        <v>3163.5071350297</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>3163.5071350297</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4475.79311641105</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>4236.244377387751</v>
+        <v>1244.042297501331</v>
       </c>
       <c r="U34" t="n">
-        <v>4236.244377387751</v>
+        <v>961.2441500474552</v>
       </c>
       <c r="V34" t="n">
-        <v>4236.244377387751</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="W34" t="n">
-        <v>3957.174712896625</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="X34" t="n">
-        <v>3718.830850756309</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="Y34" t="n">
-        <v>3494.095152145073</v>
+        <v>687.3584049869771</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3833.080354073989</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W35" t="n">
-        <v>3449.320053209158</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X35" t="n">
-        <v>3048.67665537811</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y35" t="n">
-        <v>2647.7399823262</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7025,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
         <v>1435.775802995229</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>257.8748235800315</v>
+        <v>425.2478852605868</v>
       </c>
       <c r="C37" t="n">
-        <v>257.8748235800315</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D37" t="n">
-        <v>257.8748235800315</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E37" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
         <v>93.2436976906228</v>
@@ -7120,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>1153.452678737507</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>879.5669336770293</v>
+        <v>1355.096816897309</v>
       </c>
       <c r="W37" t="n">
-        <v>600.4972691859036</v>
+        <v>1076.027152406183</v>
       </c>
       <c r="X37" t="n">
-        <v>482.6105221912669</v>
+        <v>837.6832902658665</v>
       </c>
       <c r="Y37" t="n">
-        <v>257.8748235800315</v>
+        <v>612.9475916546312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7214,10 +7216,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7262,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
         <v>1435.775802995229</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>330.0097777178959</v>
+        <v>732.3145881425788</v>
       </c>
       <c r="C40" t="n">
-        <v>330.0097777178959</v>
+        <v>561.2212157042953</v>
       </c>
       <c r="D40" t="n">
-        <v>330.0097777178959</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="E40" t="n">
-        <v>330.0097777178959</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F40" t="n">
-        <v>330.0097777178959</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W40" t="n">
-        <v>554.7454763291312</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="X40" t="n">
-        <v>554.7454763291312</v>
+        <v>1144.749993147859</v>
       </c>
       <c r="Y40" t="n">
-        <v>330.0097777178959</v>
+        <v>920.0142945366232</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1719.575126160274</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C41" t="n">
-        <v>1309.450535473544</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D41" t="n">
-        <v>904.9866055666048</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E41" t="n">
-        <v>490.6463900835015</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F41" t="n">
-        <v>386.7965704396057</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7965704396057</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1506.717429906452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2259.89844654507</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3572.197169313043</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3315.136677572553</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V41" t="n">
-        <v>3315.136677572553</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W41" t="n">
-        <v>2931.376376707721</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X41" t="n">
-        <v>2530.732978876674</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y41" t="n">
-        <v>2129.796305824764</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>75.88807306732367</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>75.88807306732367</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M42" t="n">
-        <v>918.8651537618904</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N42" t="n">
-        <v>1792.523245873508</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>710.5321139600462</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C43" t="n">
-        <v>710.5321139600462</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D43" t="n">
-        <v>551.0374692829563</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E43" t="n">
-        <v>390.1266541512758</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F43" t="n">
-        <v>225.495528261867</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G43" t="n">
-        <v>225.495528261867</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1365.738230664876</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1173.611674711598</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>1173.611674711598</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.611674711598</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X43" t="n">
-        <v>935.2678125712815</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="Y43" t="n">
-        <v>710.5321139600462</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1753.497872361587</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C44" t="n">
-        <v>1753.497872361587</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D44" t="n">
-        <v>1349.033942454647</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>934.6937269715438</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>795.5248545467734</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>386.7965704396057</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3499.769438036078</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3499.769438036078</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>3572.197169313043</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U44" t="n">
-        <v>3315.136677572553</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V44" t="n">
-        <v>2965.299122909033</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W44" t="n">
-        <v>2965.299122909033</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X44" t="n">
-        <v>2564.655725077986</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y44" t="n">
-        <v>2163.719052026076</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>268.7009306299569</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>1142.359022741575</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>680.185337670281</v>
+        <v>4163.563440859426</v>
       </c>
       <c r="C46" t="n">
-        <v>509.0919652319975</v>
+        <v>3992.470068421143</v>
       </c>
       <c r="D46" t="n">
-        <v>509.0919652319975</v>
+        <v>3832.975423744052</v>
       </c>
       <c r="E46" t="n">
-        <v>509.0919652319975</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F46" t="n">
-        <v>509.0919652319975</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G46" t="n">
-        <v>341.8415741575409</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H46" t="n">
-        <v>192.2341189629975</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1576.623698661589</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S46" t="n">
-        <v>1390.231930541499</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T46" t="n">
-        <v>1150.683191518201</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U46" t="n">
-        <v>867.8850440643254</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V46" t="n">
-        <v>867.8850440643254</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W46" t="n">
-        <v>867.8850440643254</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="X46" t="n">
-        <v>867.8850440643254</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="Y46" t="n">
-        <v>867.8850440643254</v>
+        <v>4163.563440859426</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>272.0504334731807</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>502.6011371814506</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>229.2480899138817</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>562.8045877599699</v>
+        <v>527.2265162238739</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>549.1401736751965</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>270.501948108868</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8535,25 +8537,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730677</v>
+        <v>458.6703921507823</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8696,7 +8698,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>599.5927120460788</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8708,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,19 +8777,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>808.4518367176235</v>
       </c>
       <c r="O12" t="n">
-        <v>743.7439864875633</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8933,7 +8935,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -8942,7 +8944,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>553.2955070882057</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9003,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>547.8263782580402</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9170,7 +9172,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
         <v>853.701196452193</v>
@@ -9246,25 +9248,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
-        <v>359.3504929206866</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,10 +9488,10 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
@@ -9957,19 +9959,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
-        <v>174.1409094511112</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10194,16 +10196,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
-        <v>601.0963663600584</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10671,10 +10673,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,10 +10910,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11066,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>275.187654677097</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11139,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11312,10 +11314,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>346.677814137072</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
@@ -11382,19 +11384,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>694.2906522245105</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>399.7343570073432</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>308.5558614412302</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.10615505383078</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>75.92257091904784</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>27.83998492454259</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>36.46078111520842</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.10615505383078</v>
+        <v>43.02919145391169</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>23.97719740167145</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>242.7160577978954</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>37.84312462897394</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>63.1029136148214</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>142.0904386938125</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>308.5558614412304</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.35263051300494</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>193.4209809967735</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>118.7720422771764</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>54.06597461814515</v>
+        <v>0.7564490426709227</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>18.0396099917148</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>8.893130557884547</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>222.4997066824609</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>117.6974449943815</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>46.86680822991329</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>96.14494677818652</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25360,22 +25362,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>6.27656796985076</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>119.252543994223</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>134.6847134965116</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>19.48154954085899</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>79.29084857930957</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>314.0087864783924</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>89.76487558559228</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25849,7 +25851,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>54.06597461814522</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>279.0429242253266</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>57.97083337848026</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>56.04335282503554</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26089,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>654555.0578503798</v>
+        <v>663272.380902058</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>525508.9945553601</v>
+        <v>594269.3933072713</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>525508.9945553599</v>
+        <v>594269.3933072714</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594269.3933072712</v>
+        <v>594269.3933072714</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594269.3933072713</v>
+        <v>594269.3933072714</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>594269.3933072714</v>
+        <v>594269.3933072711</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>594269.3933072712</v>
+        <v>594269.3933072713</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>525508.9945553599</v>
+        <v>594269.3933072713</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>525508.9945553599</v>
+        <v>594269.3933072714</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504935.4184006166</v>
+        <v>504935.4184006167</v>
       </c>
       <c r="C2" t="n">
         <v>504935.4184006166</v>
       </c>
       <c r="D2" t="n">
-        <v>504935.4184006167</v>
+        <v>504935.4184006166</v>
       </c>
       <c r="E2" t="n">
-        <v>397017.3065685161</v>
+        <v>448955.4346793954</v>
       </c>
       <c r="F2" t="n">
-        <v>397017.3065685162</v>
+        <v>448955.4346793953</v>
       </c>
       <c r="G2" t="n">
         <v>448955.4346793953</v>
@@ -26332,28 +26334,28 @@
         <v>448955.4346793954</v>
       </c>
       <c r="I2" t="n">
+        <v>448955.4346793954</v>
+      </c>
+      <c r="J2" t="n">
         <v>448955.4346793953</v>
       </c>
-      <c r="J2" t="n">
-        <v>448955.4346793955</v>
-      </c>
       <c r="K2" t="n">
-        <v>448955.4346793955</v>
+        <v>448955.4346793953</v>
       </c>
       <c r="L2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="M2" t="n">
+        <v>448955.4346793956</v>
+      </c>
+      <c r="N2" t="n">
         <v>448955.4346793955</v>
       </c>
-      <c r="N2" t="n">
-        <v>448955.4346793954</v>
-      </c>
       <c r="O2" t="n">
-        <v>397017.306568516</v>
+        <v>448955.4346793953</v>
       </c>
       <c r="P2" t="n">
-        <v>397017.3065685161</v>
+        <v>448955.4346793955</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>174432.0962319951</v>
+        <v>85879.9925474617</v>
       </c>
       <c r="E4" t="n">
-        <v>26671.1703202895</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="F4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
@@ -26439,25 +26441,25 @@
         <v>30192.61954398331</v>
       </c>
       <c r="J4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="K4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="L4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="M4" t="n">
+        <v>30192.61954398332</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30192.61954398332</v>
+      </c>
+      <c r="O4" t="n">
         <v>30192.61954398331</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>30192.61954398331</v>
-      </c>
-      <c r="O4" t="n">
-        <v>26671.17032028951</v>
-      </c>
-      <c r="P4" t="n">
-        <v>26671.17032028951</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90178.74719700988</v>
+        <v>90178.74719701009</v>
       </c>
       <c r="C6" t="n">
-        <v>265134.2570901239</v>
+        <v>265134.257090124</v>
       </c>
       <c r="D6" t="n">
-        <v>265134.257090124</v>
+        <v>148226.8855878862</v>
       </c>
       <c r="E6" t="n">
-        <v>185316.53392731</v>
+        <v>320928.6507096046</v>
       </c>
       <c r="F6" t="n">
-        <v>312671.2007170608</v>
+        <v>347897.6048905387</v>
       </c>
       <c r="G6" t="n">
-        <v>288436.150204577</v>
+        <v>347897.6048905387</v>
       </c>
       <c r="H6" t="n">
         <v>347897.6048905388</v>
       </c>
       <c r="I6" t="n">
+        <v>347897.6048905388</v>
+      </c>
+      <c r="J6" t="n">
+        <v>211302.8040846438</v>
+      </c>
+      <c r="K6" t="n">
         <v>347897.6048905387</v>
       </c>
-      <c r="J6" t="n">
-        <v>211302.8040846439</v>
-      </c>
-      <c r="K6" t="n">
-        <v>347897.6048905388</v>
-      </c>
       <c r="L6" t="n">
-        <v>347897.6048905388</v>
+        <v>207898.2940257861</v>
       </c>
       <c r="M6" t="n">
-        <v>241602.7928726641</v>
+        <v>325388.3401164915</v>
       </c>
       <c r="N6" t="n">
         <v>347897.6048905388</v>
       </c>
       <c r="O6" t="n">
-        <v>312671.2007170605</v>
+        <v>347897.6048905387</v>
       </c>
       <c r="P6" t="n">
-        <v>312671.2007170606</v>
+        <v>347897.6048905389</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>164.4415180694766</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>98.46266545452409</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27585,25 +27587,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>41.19181870562889</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>112.3509281389546</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.73858206955936</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27679,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>235.1069474178002</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.49686737395935</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27825,22 +27827,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.0564076114222</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>393.0160384451232</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>269.6124150282757</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -28026,7 +28028,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>27.2398917507106</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300481</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>176.5650354103359</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>445.0368534430332</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>506.6900639491208</v>
+        <v>471.1119924130248</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>460.0037840019794</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>176.8525848279838</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35255,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>500.9700927793177</v>
+        <v>405.4769987570323</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35416,7 +35418,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>506.3024875890333</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35428,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>755.2584433238735</v>
       </c>
       <c r="O12" t="n">
-        <v>685.9925074875633</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35662,7 +35664,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>459.6461438073216</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>493.5667432552365</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
-        <v>305.0908579178828</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>688.3272054397147</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
-        <v>120.9475160573612</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
-        <v>547.9029729663084</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O39" t="n">
         <v>711.0677682281761</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37786,7 +37788,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>181.8974302200515</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38032,10 +38034,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>256.64400973792</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>636.5391732245105</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2284911.460898523</v>
+        <v>2283598.815442942</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029743</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7053659.838602787</v>
+        <v>7053659.838602788</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>241.581826710386</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>5.245116407279975</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>143.3360317332599</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>160.2001974453566</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>213.607712013765</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>311.6807085383107</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>4.913758367914863</v>
+        <v>251.987706285615</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.10292942272131</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1150,7 +1150,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1198,10 +1198,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>308.3476441275639</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059086</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>245.2379843596723</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>71.36683641495289</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>29.06736062834964</v>
       </c>
       <c r="C13" t="n">
-        <v>93.45986779485281</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1587,13 +1587,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5236380974013</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1672,7 +1672,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>88.08110241150655</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.7935178761923</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>123.2148172775827</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>402.9401476073396</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1858,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U19" t="n">
-        <v>37.25410818144166</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>96.0851398248662</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>137.8797272855246</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>402.9401476073396</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2383,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>88.08110241150655</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>86.5491849825636</v>
+        <v>277.0759677126117</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2730,10 +2730,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>212.7440501992508</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>84.73179601342665</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>141.2620969886489</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3009,16 +3009,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>91.8634291666399</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3091,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>22.92681701721022</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -3207,7 +3207,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>190.2864434031516</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3249,7 +3249,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.68863244324778</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>309.974021089658</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>22.92681701721074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>264.8703196400225</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>39.64108301376388</v>
+        <v>173.5693474676043</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3666,22 +3666,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>138.4181486894601</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3796,16 +3796,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>119.8051733265733</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>142.5359303380066</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>181.8006211200604</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>346.3533159897248</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>101.3308736018835</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4152,10 +4152,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>46.95077884140928</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.2287622341209</v>
+        <v>888.3313057386429</v>
       </c>
       <c r="C2" t="n">
         <v>478.2067150519129</v>
       </c>
       <c r="D2" t="n">
-        <v>477.7831891853775</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
         <v>63.44297370227418</v>
@@ -4330,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1516.210242763442</v>
+        <v>2082.956184099011</v>
       </c>
       <c r="W2" t="n">
-        <v>1132.44994189861</v>
+        <v>1699.19588323418</v>
       </c>
       <c r="X2" t="n">
-        <v>1132.44994189861</v>
+        <v>1298.552485403132</v>
       </c>
       <c r="Y2" t="n">
-        <v>1132.44994189861</v>
+        <v>1298.552485403132</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959273</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.8908561961008</v>
+        <v>661.0860209274247</v>
       </c>
       <c r="C4" t="n">
-        <v>365.8908561961008</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="D4" t="n">
-        <v>206.3962115190108</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="E4" t="n">
-        <v>206.3962115190108</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1426.380111812816</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1426.380111812816</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>1143.58196435894</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6962192984618</v>
+        <v>940.1556854185503</v>
       </c>
       <c r="W4" t="n">
-        <v>590.6265548073361</v>
+        <v>661.0860209274247</v>
       </c>
       <c r="X4" t="n">
-        <v>590.6265548073361</v>
+        <v>661.0860209274247</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.8908561961008</v>
+        <v>661.0860209274247</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885.0481370381763</v>
+        <v>80.25049765783463</v>
       </c>
       <c r="C5" t="n">
-        <v>474.9235463514464</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D5" t="n">
-        <v>160.0945478279002</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4573,46 +4573,46 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.912714533713</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>1695.912714533713</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.912714533713</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X5" t="n">
-        <v>1295.269316702666</v>
+        <v>696.9525363802143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1295.269316702666</v>
+        <v>296.0158633283044</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
         <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.4659132624289</v>
+        <v>799.2174189668733</v>
       </c>
       <c r="C7" t="n">
-        <v>191.3725408241454</v>
+        <v>628.1240465285898</v>
       </c>
       <c r="D7" t="n">
-        <v>191.3725408241454</v>
+        <v>468.6294018514998</v>
       </c>
       <c r="E7" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F7" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4758,19 +4758,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1566.200589959629</v>
+        <v>1316.630945598316</v>
       </c>
       <c r="V7" t="n">
-        <v>1292.314844899151</v>
+        <v>1316.630945598316</v>
       </c>
       <c r="W7" t="n">
-        <v>1013.245180408025</v>
+        <v>1037.56128110719</v>
       </c>
       <c r="X7" t="n">
-        <v>774.9013182677086</v>
+        <v>799.2174189668733</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.1656196564733</v>
+        <v>799.2174189668733</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2137.925013712426</v>
+        <v>2231.056920380548</v>
       </c>
       <c r="C8" t="n">
-        <v>1727.800423025697</v>
+        <v>1820.932329693819</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>1416.468399786879</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>1002.128184303776</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297455</v>
+        <v>581.0977722574635</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225776</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
         <v>172.3694881502956</v>
@@ -4807,19 +4807,19 @@
         <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
-        <v>1590.9540978564</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
-        <v>2367.272688848154</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>3120.453705486772</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>3764.084561903877</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
         <v>3939.168620883581</v>
@@ -4846,10 +4846,10 @@
         <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>2552.096969009509</v>
+        <v>2641.278100045038</v>
       </c>
       <c r="Y8" t="n">
-        <v>2151.160295957599</v>
+        <v>2641.278100045038</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.01772546736876</v>
+        <v>1059.005529872831</v>
       </c>
       <c r="C10" t="n">
-        <v>86.01772546736876</v>
+        <v>887.9121574345479</v>
       </c>
       <c r="D10" t="n">
-        <v>86.01772546736876</v>
+        <v>728.4175127574579</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736876</v>
+        <v>567.5066976257774</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736876</v>
+        <v>402.8755717363687</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="H10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.203396620231</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>821.4052491663549</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>547.5195041058769</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>268.4498396147512</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>86.01772546736876</v>
+        <v>1471.440934878111</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.01772546736876</v>
+        <v>1246.705236266876</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X11" t="n">
-        <v>3360.349242692484</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2959.412569640574</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1392.027034650488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N12" t="n">
-        <v>2139.732893541123</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>828.6312213896092</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>734.2273145261215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V13" t="n">
-        <v>828.6312213896092</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W13" t="n">
-        <v>828.6312213896092</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X13" t="n">
-        <v>828.6312213896092</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y13" t="n">
-        <v>828.6312213896092</v>
+        <v>122.6046680222891</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2139.066799289355</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
         <v>2139.066799289355</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>4341.526397105643</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U14" t="n">
-        <v>4084.465905365153</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.628350701634</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.868049836802</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X14" t="n">
-        <v>2950.224652005755</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2549.287978953845</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5363,16 +5363,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.327156917303</v>
+        <v>217.7031090821205</v>
       </c>
       <c r="C16" t="n">
-        <v>844.2337844790193</v>
+        <v>217.7031090821205</v>
       </c>
       <c r="D16" t="n">
-        <v>684.7391398019292</v>
+        <v>217.7031090821205</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8283246702488</v>
+        <v>217.7031090821205</v>
       </c>
       <c r="F16" t="n">
-        <v>359.19719878084</v>
+        <v>217.7031090821205</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5463,25 +5463,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>643.7466776164815</v>
       </c>
       <c r="X16" t="n">
-        <v>1384.298732171156</v>
+        <v>405.4028154761649</v>
       </c>
       <c r="Y16" t="n">
-        <v>1159.563033559921</v>
+        <v>405.4028154761649</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1032.970092797216</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>861.8767203589325</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>702.3820756818425</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>541.471260550162</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>376.8401346607533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U19" t="n">
-        <v>1499.739463682386</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.739463682386</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W19" t="n">
-        <v>1220.66979919126</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X19" t="n">
-        <v>1220.66979919126</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y19" t="n">
-        <v>1220.66979919126</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2140.463105868917</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1730.338515182187</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1325.874585275247</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>911.5343697921442</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4565.129187738346</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4342.922703685204</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4085.862211944715</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3736.024657281195</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3352.264356416364</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2951.620958585316</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2550.684285533406</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1296.978374387823</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1023.092629327345</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>744.0229648362191</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>505.6791026959025</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>280.9434040846672</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6019,22 +6019,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4182.917908737509</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3833.080354073989</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3449.320053209158</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.2436976906228</v>
+        <v>1017.946422102351</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>846.8530496640672</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.702087168085</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U25" t="n">
-        <v>1109.278667993779</v>
+        <v>1017.946422102351</v>
       </c>
       <c r="V25" t="n">
-        <v>835.3929229333004</v>
+        <v>1017.946422102351</v>
       </c>
       <c r="W25" t="n">
-        <v>556.3232584421747</v>
+        <v>1017.946422102351</v>
       </c>
       <c r="X25" t="n">
-        <v>317.9793963018581</v>
+        <v>1017.946422102351</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.2436976906228</v>
+        <v>1017.946422102351</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>425.1252146544881</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1827.394211974981</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1422.930282068041</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1008.590066584938</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>587.5596545386256</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>178.8313704314578</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>178.8313704314578</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3868.173511609275</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3868.173511609275</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3708.678866932185</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3868.173511609275</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3868.173511609275</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3868.173511609275</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3868.173511609275</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>687.3584049869771</v>
+        <v>745.826042287315</v>
       </c>
       <c r="C34" t="n">
-        <v>687.3584049869771</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="D34" t="n">
-        <v>687.3584049869771</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E34" t="n">
-        <v>526.4475898552967</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>1244.042297501331</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U34" t="n">
-        <v>961.2441500474552</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V34" t="n">
-        <v>687.3584049869771</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="W34" t="n">
-        <v>687.3584049869771</v>
+        <v>933.5257486813593</v>
       </c>
       <c r="X34" t="n">
-        <v>687.3584049869771</v>
+        <v>933.5257486813593</v>
       </c>
       <c r="Y34" t="n">
-        <v>687.3584049869771</v>
+        <v>933.5257486813593</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>116.4020987181084</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6973,16 +6973,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3663.876532666778</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X35" t="n">
-        <v>3263.23313483573</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2862.29646178382</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>425.2478852605868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1355.096816897309</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1076.027152406183</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>837.6832902658665</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>612.9475916546312</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7201,19 +7201,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
         <v>3273.997480009557</v>
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.3145881425788</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C40" t="n">
-        <v>561.2212157042953</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D40" t="n">
-        <v>421.4049038967599</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>260.4940887650794</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7362,22 +7362,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.093855288175</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="W40" t="n">
-        <v>1383.093855288175</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.749993147859</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y40" t="n">
-        <v>920.0142945366232</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
@@ -7444,19 +7444,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4183.681998679601</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.844444016082</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3450.08414315125</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X41" t="n">
-        <v>3049.440745320202</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.642594311473</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="X43" t="n">
-        <v>1478.666907101365</v>
+        <v>276.8806887209868</v>
       </c>
       <c r="Y43" t="n">
-        <v>1253.93120849013</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2494.579294402201</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.454703715471</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7678,22 +7678,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4439.978400477999</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>4090.140845814479</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3706.380544949648</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>3305.7371471186</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2904.80047406669</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4163.563440859426</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="C46" t="n">
-        <v>3992.470068421143</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D46" t="n">
-        <v>3832.975423744052</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E46" t="n">
-        <v>3730.621005964372</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F46" t="n">
-        <v>3565.989880074963</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G46" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4662.18488453114</v>
+        <v>1575.217565178736</v>
       </c>
       <c r="T46" t="n">
-        <v>4662.18488453114</v>
+        <v>1575.217565178736</v>
       </c>
       <c r="U46" t="n">
-        <v>4662.18488453114</v>
+        <v>1575.217565178736</v>
       </c>
       <c r="V46" t="n">
-        <v>4388.299139470661</v>
+        <v>1301.331820118258</v>
       </c>
       <c r="W46" t="n">
-        <v>4388.299139470661</v>
+        <v>1022.262155627133</v>
       </c>
       <c r="X46" t="n">
-        <v>4388.299139470661</v>
+        <v>783.918293486816</v>
       </c>
       <c r="Y46" t="n">
-        <v>4163.563440859426</v>
+        <v>783.918293486816</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>249.8886267436438</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
@@ -7993,13 +7993,13 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>337.4068669225207</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
@@ -8230,16 +8230,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>229.2480899138817</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>527.2265162238739</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>391.1981341283837</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8455,7 +8455,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>275.0827150970472</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8470,7 +8470,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>270.501948108868</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>808.4518367176235</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>527.8697493391553</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -9011,19 +9011,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>571.1716873458281</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9245,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,22 +9722,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9956,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10603,7 +10603,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>384.4175102257753</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11153,16 +11153,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>62.56142803888687</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>308.5558614412302</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>156.7553487017543</v>
       </c>
       <c r="C13" t="n">
-        <v>75.92257091904784</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>36.46078111520842</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>308.5558614412304</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.02919145391169</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>42.36306988612928</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U19" t="n">
-        <v>242.7160577978954</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>37.84312462897394</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24177,13 +24177,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>142.0904386938125</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>308.5558614412304</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>193.4209809967735</v>
+        <v>2.894198266725368</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>63.53491764696355</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7564490426709227</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>18.0396099917148</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>46.86680822991329</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>229.5903354029666</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>96.14494677818652</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>62.56142803888683</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25365,13 +25365,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.27656796985076</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>356.9958808389731</v>
+        <v>223.0676163851327</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>19.48154954085899</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>243.7935427085837</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>45.84716204233376</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>93.42449318090684</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>40.68772050506257</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>54.06597461814522</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>57.97083337848026</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>137.5770715974795</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>594269.3933072713</v>
+        <v>594269.3933072714</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>594269.3933072714</v>
+        <v>594269.3933072713</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>594269.3933072714</v>
+        <v>594269.3933072713</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>594269.3933072711</v>
+        <v>594269.3933072714</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>594269.3933072713</v>
+        <v>594269.3933072714</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>594269.3933072714</v>
+        <v>594269.3933072715</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594269.3933072713</v>
+        <v>594269.3933072714</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>594269.3933072713</v>
+        <v>594269.3933072714</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504935.4184006167</v>
+        <v>504935.4184006164</v>
       </c>
       <c r="C2" t="n">
         <v>504935.4184006166</v>
       </c>
       <c r="D2" t="n">
-        <v>504935.4184006166</v>
+        <v>504935.4184006165</v>
       </c>
       <c r="E2" t="n">
+        <v>448955.4346793953</v>
+      </c>
+      <c r="F2" t="n">
         <v>448955.4346793954</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>448955.4346793955</v>
+      </c>
+      <c r="H2" t="n">
         <v>448955.4346793953</v>
       </c>
-      <c r="G2" t="n">
-        <v>448955.4346793953</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>448955.4346793956</v>
+      </c>
+      <c r="J2" t="n">
+        <v>448955.4346793955</v>
+      </c>
+      <c r="K2" t="n">
+        <v>448955.4346793955</v>
+      </c>
+      <c r="L2" t="n">
+        <v>448955.4346793956</v>
+      </c>
+      <c r="M2" t="n">
+        <v>448955.4346793955</v>
+      </c>
+      <c r="N2" t="n">
         <v>448955.4346793954</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>448955.4346793954</v>
-      </c>
-      <c r="J2" t="n">
-        <v>448955.4346793953</v>
-      </c>
-      <c r="K2" t="n">
-        <v>448955.4346793953</v>
-      </c>
-      <c r="L2" t="n">
-        <v>448955.4346793955</v>
-      </c>
-      <c r="M2" t="n">
-        <v>448955.4346793956</v>
-      </c>
-      <c r="N2" t="n">
-        <v>448955.4346793955</v>
-      </c>
-      <c r="O2" t="n">
-        <v>448955.4346793953</v>
       </c>
       <c r="P2" t="n">
         <v>448955.4346793955</v>
@@ -26423,7 +26423,7 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>85879.9925474617</v>
+        <v>85879.99254746169</v>
       </c>
       <c r="E4" t="n">
         <v>30192.61954398331</v>
@@ -26441,19 +26441,19 @@
         <v>30192.61954398331</v>
       </c>
       <c r="J4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="L4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="M4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
         <v>30192.61954398331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90178.74719701009</v>
+        <v>90178.74719700965</v>
       </c>
       <c r="C6" t="n">
-        <v>265134.257090124</v>
+        <v>265134.2570901239</v>
       </c>
       <c r="D6" t="n">
-        <v>148226.8855878862</v>
+        <v>148226.885587886</v>
       </c>
       <c r="E6" t="n">
-        <v>320928.6507096046</v>
+        <v>320748.0701169554</v>
       </c>
       <c r="F6" t="n">
-        <v>347897.6048905387</v>
+        <v>347717.0242978897</v>
       </c>
       <c r="G6" t="n">
-        <v>347897.6048905387</v>
+        <v>347717.0242978897</v>
       </c>
       <c r="H6" t="n">
-        <v>347897.6048905388</v>
+        <v>347717.0242978896</v>
       </c>
       <c r="I6" t="n">
-        <v>347897.6048905388</v>
+        <v>347717.0242978898</v>
       </c>
       <c r="J6" t="n">
-        <v>211302.8040846438</v>
+        <v>211122.2234919948</v>
       </c>
       <c r="K6" t="n">
-        <v>347897.6048905387</v>
+        <v>347717.0242978897</v>
       </c>
       <c r="L6" t="n">
-        <v>207898.2940257861</v>
+        <v>207717.7134331371</v>
       </c>
       <c r="M6" t="n">
-        <v>325388.3401164915</v>
+        <v>325207.7595238423</v>
       </c>
       <c r="N6" t="n">
-        <v>347897.6048905388</v>
+        <v>347717.0242978897</v>
       </c>
       <c r="O6" t="n">
-        <v>347897.6048905387</v>
+        <v>347717.0242978897</v>
       </c>
       <c r="P6" t="n">
-        <v>347897.6048905389</v>
+        <v>347717.0242978898</v>
       </c>
     </row>
   </sheetData>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>164.4415180694766</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27432,19 +27432,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>341.0940627096041</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27539,10 +27539,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>41.19181870562889</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>110.9466901645167</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>192.5112558540795</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>88.73858206955936</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>275.0564076114222</v>
+        <v>27.98245969372206</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.0160384451232</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>88.28931972517307</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300481</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34713,13 +34713,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>506.6900639491206</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P3" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
@@ -34950,16 +34950,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>471.1119924130248</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
+        <v>338.0047407346337</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>185.9463254238301</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35190,7 +35190,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>176.8525848279838</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>755.2584433238735</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37323,7 +37323,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>328.3029864149263</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
